--- a/Folha gerada.xlsx
+++ b/Folha gerada.xlsx
@@ -7,20 +7,28 @@
   </bookViews>
   <sheets>
     <sheet name="1" r:id="rId3" sheetId="1"/>
+    <sheet name="2" r:id="rId4" sheetId="2"/>
+    <sheet name="3" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="76">
   <si>
     <t>Colaborador</t>
   </si>
   <si>
+    <t>FELYPE AURÉLIO GANZERT</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Referente ao mês:</t>
   </si>
   <si>
-    <t>julho/2020</t>
+    <t>agosto/2021</t>
   </si>
   <si>
     <t>Dia do mês</t>
@@ -42,6 +50,198 @@
   </si>
   <si>
     <t>Observações</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>domingo</t>
+  </si>
+  <si>
+    <t>folga</t>
+  </si>
+  <si>
+    <t>---------------------</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>segunda</t>
+  </si>
+  <si>
+    <t>feriado</t>
+  </si>
+  <si>
+    <t>férias</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>terça</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>quarta</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>quinta</t>
+  </si>
+  <si>
+    <t>18:00 às 21:30</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>sexta</t>
+  </si>
+  <si>
+    <t>08:00 às 12:00</t>
+  </si>
+  <si>
+    <t>13:30 às 17:30</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>sábado</t>
+  </si>
+  <si>
+    <t>13:30 às 18:00</t>
+  </si>
+  <si>
+    <t>18:030 às 21:30</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>08:00 às 13:00</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Faltas:</t>
+  </si>
+  <si>
+    <t>_____________</t>
+  </si>
+  <si>
+    <t>Observações:</t>
+  </si>
+  <si>
+    <t>Assinatura do colaborador</t>
+  </si>
+  <si>
+    <t>________________________________________</t>
+  </si>
+  <si>
+    <t>Assinatura secretária</t>
+  </si>
+  <si>
+    <t>Assinatura direção</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>c08:00 às 12:00</t>
+  </si>
+  <si>
+    <t>13:30 às 18:30</t>
+  </si>
+  <si>
+    <t>cfolga</t>
+  </si>
+  <si>
+    <t>c08:00 às 13:00</t>
+  </si>
+  <si>
+    <t>MILENA</t>
+  </si>
+  <si>
+    <t>08:30 às 12:00</t>
+  </si>
+  <si>
+    <t>18:00 às 21:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -49,13 +249,49 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -78,7 +314,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -154,11 +390,179 @@
         <color indexed="8"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true">
@@ -170,13 +574,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -188,7 +619,7 @@
     <col min="4" max="4" style="1" width="18.42578125" customWidth="true"/>
     <col min="5" max="5" style="1" width="18.42578125" customWidth="true"/>
     <col min="6" max="6" style="1" width="18.42578125" customWidth="true"/>
-    <col min="7" max="7" style="1" width="30.85546875" customWidth="true"/>
+    <col min="7" max="7" style="1" width="30.42578125" customWidth="true"/>
     <col min="8" max="8" style="1" width="8.0" customWidth="false"/>
     <col min="9" max="9" style="1" width="8.0" customWidth="false"/>
     <col min="10" max="10" style="1" width="8.0" customWidth="false"/>
@@ -199,40 +630,2581 @@
       <c r="A1" t="s" s="3">
         <v>0</v>
       </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="6">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s" s="5">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s" s="8">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s" s="10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.390551" footer="0.0" header="0.0" left="0.511811" right="0.511811" top="0.787402"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" style="1" width="17.5703125" customWidth="true"/>
+    <col min="2" max="2" style="1" width="16.42578125" customWidth="true"/>
+    <col min="3" max="3" style="1" width="18.42578125" customWidth="true"/>
+    <col min="4" max="4" style="1" width="18.42578125" customWidth="true"/>
+    <col min="5" max="5" style="1" width="18.42578125" customWidth="true"/>
+    <col min="6" max="6" style="1" width="18.42578125" customWidth="true"/>
+    <col min="7" max="7" style="1" width="30.42578125" customWidth="true"/>
+    <col min="8" max="8" style="1" width="8.0" customWidth="false"/>
+    <col min="9" max="9" style="1" width="8.0" customWidth="false"/>
+    <col min="10" max="10" style="1" width="8.0" customWidth="false"/>
+    <col min="11" max="11" style="1" width="8.0" customWidth="false"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="3">
         <v>3</v>
       </c>
+      <c r="B2" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>5</v>
+      </c>
       <c r="B3" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="6">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s" s="5">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s" s="8">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s" s="10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.390551" footer="0.0" header="0.0" left="0.511811" right="0.511811" top="0.787402"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" style="1" width="17.5703125" customWidth="true"/>
+    <col min="2" max="2" style="1" width="16.42578125" customWidth="true"/>
+    <col min="3" max="3" style="1" width="18.42578125" customWidth="true"/>
+    <col min="4" max="4" style="1" width="18.42578125" customWidth="true"/>
+    <col min="5" max="5" style="1" width="18.42578125" customWidth="true"/>
+    <col min="6" max="6" style="1" width="18.42578125" customWidth="true"/>
+    <col min="7" max="7" style="1" width="30.42578125" customWidth="true"/>
+    <col min="8" max="8" style="1" width="8.0" customWidth="false"/>
+    <col min="9" max="9" style="1" width="8.0" customWidth="false"/>
+    <col min="10" max="10" style="1" width="8.0" customWidth="false"/>
+    <col min="11" max="11" style="1" width="8.0" customWidth="false"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="4">
         <v>4</v>
       </c>
+      <c r="G2" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>6</v>
+      </c>
       <c r="C3" t="s" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="6">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s" s="5">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s" s="8">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s" s="10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.590551" footer="0.0" header="0.0" left="0.511811" right="0.511811" top="0.787402"/>
-  <pageSetup orientation="landscape"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.390551" footer="0.0" header="0.0" left="0.511811" right="0.511811" top="0.787402"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
 </worksheet>
 </file>
--- a/Folha gerada.xlsx
+++ b/Folha gerada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="74">
   <si>
     <t>Colaborador</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Referente ao mês:</t>
   </si>
   <si>
-    <t>agosto/2021</t>
+    <t>setembro/2020</t>
   </si>
   <si>
     <t>Dia do mês</t>
@@ -55,72 +55,69 @@
     <t>01</t>
   </si>
   <si>
+    <t>terça</t>
+  </si>
+  <si>
+    <t>folga</t>
+  </si>
+  <si>
+    <t>---------------------</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>quarta</t>
+  </si>
+  <si>
+    <t>08:00 às 13:00</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>quinta</t>
+  </si>
+  <si>
+    <t>13:30 às 17:30</t>
+  </si>
+  <si>
+    <t>18:00 às 21:30</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>sexta</t>
+  </si>
+  <si>
+    <t>08:00 às 12:00</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>sábado</t>
+  </si>
+  <si>
+    <t>13:30 às 18:00</t>
+  </si>
+  <si>
+    <t>18:030 às 21:30</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
     <t>domingo</t>
   </si>
   <si>
-    <t>folga</t>
-  </si>
-  <si>
-    <t>---------------------</t>
-  </si>
-  <si>
-    <t>02</t>
+    <t>07</t>
   </si>
   <si>
     <t>segunda</t>
   </si>
   <si>
-    <t>feriado</t>
-  </si>
-  <si>
-    <t>férias</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>terça</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>quarta</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>quinta</t>
-  </si>
-  <si>
-    <t>18:00 às 21:30</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>sexta</t>
-  </si>
-  <si>
-    <t>08:00 às 12:00</t>
-  </si>
-  <si>
-    <t>13:30 às 17:30</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>sábado</t>
-  </si>
-  <si>
-    <t>13:30 às 18:00</t>
-  </si>
-  <si>
-    <t>18:030 às 21:30</t>
-  </si>
-  <si>
     <t>08</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>08:00 às 13:00</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -220,25 +214,25 @@
     <t>CARLA</t>
   </si>
   <si>
+    <t>c08:00 às 13:00</t>
+  </si>
+  <si>
+    <t>cfolga</t>
+  </si>
+  <si>
     <t>c08:00 às 12:00</t>
   </si>
   <si>
     <t>13:30 às 18:30</t>
   </si>
   <si>
-    <t>cfolga</t>
-  </si>
-  <si>
-    <t>c08:00 às 13:00</t>
-  </si>
-  <si>
     <t>MILENA</t>
   </si>
   <si>
+    <t>18:00 às 21:00</t>
+  </si>
+  <si>
     <t>08:30 às 12:00</t>
-  </si>
-  <si>
-    <t>18:00 às 21:00</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -705,13 +699,13 @@
         <v>18</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s" s="3">
         <v>14</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>2</v>
@@ -719,22 +713,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="C6" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="E6" t="s" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>2</v>
@@ -742,22 +736,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="F7" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>2</v>
@@ -765,19 +759,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="C8" t="s" s="3">
-        <v>18</v>
-      </c>
       <c r="D8" t="s" s="3">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>2</v>
@@ -788,22 +782,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s" s="3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>2</v>
@@ -811,22 +805,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>2</v>
@@ -834,7 +828,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s" s="3">
         <v>13</v>
@@ -857,13 +851,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s" s="3">
         <v>17</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s" s="3">
         <v>14</v>
@@ -872,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>2</v>
@@ -880,22 +874,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C13" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="E13" t="s" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>2</v>
@@ -903,19 +897,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>2</v>
@@ -926,19 +920,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="C15" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="D15" t="s" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>2</v>
@@ -949,22 +943,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>2</v>
@@ -972,22 +966,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>2</v>
@@ -995,7 +989,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s" s="3">
         <v>13</v>
@@ -1018,13 +1012,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s" s="3">
         <v>17</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s" s="3">
         <v>14</v>
@@ -1033,7 +1027,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>2</v>
@@ -1041,22 +1035,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C20" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="E20" t="s" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>2</v>
@@ -1064,19 +1058,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="4">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>2</v>
@@ -1087,19 +1081,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="C22" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="D22" t="s" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>2</v>
@@ -1110,22 +1104,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="4">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>2</v>
@@ -1133,22 +1127,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="4">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>2</v>
@@ -1156,7 +1150,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="3">
         <v>13</v>
@@ -1179,13 +1173,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="4">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s" s="3">
         <v>17</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s" s="3">
         <v>14</v>
@@ -1194,7 +1188,7 @@
         <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>2</v>
@@ -1202,22 +1196,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="4">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C27" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="E27" t="s" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>2</v>
@@ -1225,19 +1219,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>2</v>
@@ -1248,19 +1242,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="C29" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="D29" t="s" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>2</v>
@@ -1271,22 +1265,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>2</v>
@@ -1294,22 +1288,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>2</v>
@@ -1317,7 +1311,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s" s="3">
         <v>13</v>
@@ -1340,13 +1334,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s" s="3">
         <v>17</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s" s="3">
         <v>14</v>
@@ -1355,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>2</v>
@@ -1363,10 +1357,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="4">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s" s="3">
         <v>14</v>
@@ -1386,13 +1380,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="6">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s" s="5">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s" s="5">
         <v>60</v>
-      </c>
-      <c r="B38" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s" s="5">
-        <v>62</v>
       </c>
       <c r="D38" t="s" s="5">
         <v>2</v>
@@ -1411,10 +1405,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s" s="13">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s" s="12">
         <v>2</v>
@@ -1430,10 +1424,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s" s="13">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s" s="12">
         <v>2</v>
@@ -1449,13 +1443,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s" s="8">
         <v>2</v>
       </c>
       <c r="C44" t="s" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s" s="8">
         <v>2</v>
@@ -1499,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s" s="12">
         <v>2</v>
@@ -1547,16 +1541,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s" s="3">
         <v>14</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>2</v>
@@ -1570,16 +1564,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s" s="3">
         <v>14</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>2</v>
@@ -1587,22 +1581,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="C6" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="E6" t="s" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>2</v>
@@ -1610,22 +1604,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="F7" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>2</v>
@@ -1633,19 +1627,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s" s="3">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>2</v>
@@ -1656,19 +1650,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="3">
         <v>68</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s" s="3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>2</v>
@@ -1679,22 +1673,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>2</v>
@@ -1702,22 +1696,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s" s="3">
         <v>14</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>2</v>
@@ -1725,13 +1719,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s" s="3">
         <v>17</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s" s="3">
         <v>14</v>
@@ -1740,7 +1734,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>2</v>
@@ -1748,22 +1742,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C13" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="E13" t="s" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>2</v>
@@ -1771,19 +1765,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>2</v>
@@ -1794,19 +1788,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>2</v>
@@ -1817,19 +1811,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s" s="3">
         <v>68</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>2</v>
@@ -1840,22 +1834,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>2</v>
@@ -1863,22 +1857,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s" s="3">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s" s="3">
         <v>14</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>2</v>
@@ -1886,13 +1880,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s" s="3">
         <v>17</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s" s="3">
         <v>14</v>
@@ -1901,7 +1895,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>2</v>
@@ -1909,22 +1903,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C20" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="E20" t="s" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>2</v>
@@ -1932,19 +1926,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="4">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>2</v>
@@ -1955,19 +1949,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>2</v>
@@ -1978,19 +1972,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="4">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s" s="3">
         <v>68</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>2</v>
@@ -2001,22 +1995,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="4">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>2</v>
@@ -2024,22 +2018,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s" s="3">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s" s="3">
         <v>14</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>2</v>
@@ -2047,13 +2041,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="4">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s" s="3">
         <v>17</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s" s="3">
         <v>14</v>
@@ -2062,7 +2056,7 @@
         <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>2</v>
@@ -2070,22 +2064,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="4">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C27" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="E27" t="s" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>2</v>
@@ -2093,19 +2087,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>2</v>
@@ -2116,19 +2110,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>2</v>
@@ -2139,19 +2133,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s" s="3">
         <v>68</v>
       </c>
       <c r="D30" t="s" s="3">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>2</v>
@@ -2162,22 +2156,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>2</v>
@@ -2185,22 +2179,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s" s="3">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s" s="3">
         <v>14</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>2</v>
@@ -2208,13 +2202,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s" s="3">
         <v>17</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s" s="3">
         <v>14</v>
@@ -2223,7 +2217,7 @@
         <v>14</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>2</v>
@@ -2231,13 +2225,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="4">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s" s="3">
         <v>14</v>
@@ -2254,13 +2248,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="6">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s" s="5">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s" s="5">
         <v>60</v>
-      </c>
-      <c r="B38" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s" s="5">
-        <v>62</v>
       </c>
       <c r="D38" t="s" s="5">
         <v>2</v>
@@ -2279,10 +2273,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s" s="13">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s" s="12">
         <v>2</v>
@@ -2298,10 +2292,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s" s="13">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s" s="12">
         <v>2</v>
@@ -2317,13 +2311,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s" s="8">
         <v>2</v>
       </c>
       <c r="C44" t="s" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s" s="8">
         <v>2</v>
@@ -2367,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s" s="12">
         <v>2</v>
@@ -2415,7 +2409,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="3">
         <v>14</v>
@@ -2424,7 +2418,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>2</v>
@@ -2438,16 +2432,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>2</v>
@@ -2455,22 +2449,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="C6" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="E6" t="s" s="3">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>2</v>
@@ -2478,22 +2472,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>2</v>
@@ -2501,22 +2495,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="C8" t="s" s="3">
-        <v>18</v>
-      </c>
       <c r="D8" t="s" s="3">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>2</v>
@@ -2524,22 +2518,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>2</v>
@@ -2547,22 +2541,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>2</v>
@@ -2570,13 +2564,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s" s="3">
         <v>14</v>
@@ -2585,7 +2579,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>2</v>
@@ -2593,7 +2587,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s" s="3">
         <v>17</v>
@@ -2602,13 +2596,13 @@
         <v>14</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>2</v>
@@ -2616,22 +2610,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C13" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="E13" t="s" s="3">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>2</v>
@@ -2639,22 +2633,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>2</v>
@@ -2662,19 +2656,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="C15" t="s" s="3">
+      <c r="D15" t="s" s="3">
         <v>73</v>
       </c>
-      <c r="D15" t="s" s="3">
-        <v>30</v>
-      </c>
       <c r="E15" t="s" s="3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>2</v>
@@ -2685,22 +2679,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>2</v>
@@ -2708,22 +2702,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>2</v>
@@ -2731,13 +2725,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s" s="3">
         <v>14</v>
@@ -2746,7 +2740,7 @@
         <v>14</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>2</v>
@@ -2754,7 +2748,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s" s="3">
         <v>17</v>
@@ -2763,13 +2757,13 @@
         <v>14</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>2</v>
@@ -2777,22 +2771,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C20" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="E20" t="s" s="3">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>2</v>
@@ -2800,22 +2794,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="4">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>2</v>
@@ -2823,19 +2817,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="D22" t="s" s="3">
         <v>73</v>
       </c>
-      <c r="D22" t="s" s="3">
-        <v>30</v>
-      </c>
       <c r="E22" t="s" s="3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>2</v>
@@ -2846,22 +2840,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="4">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>2</v>
@@ -2869,22 +2863,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="4">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>2</v>
@@ -2892,13 +2886,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s" s="3">
         <v>14</v>
@@ -2907,7 +2901,7 @@
         <v>14</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>2</v>
@@ -2915,7 +2909,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="4">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s" s="3">
         <v>17</v>
@@ -2924,13 +2918,13 @@
         <v>14</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>2</v>
@@ -2938,22 +2932,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="4">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C27" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="E27" t="s" s="3">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>2</v>
@@ -2961,22 +2955,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>2</v>
@@ -2984,19 +2978,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="C29" t="s" s="3">
+      <c r="D29" t="s" s="3">
         <v>73</v>
       </c>
-      <c r="D29" t="s" s="3">
-        <v>30</v>
-      </c>
       <c r="E29" t="s" s="3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>2</v>
@@ -3007,22 +3001,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>2</v>
@@ -3030,22 +3024,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>2</v>
@@ -3053,13 +3047,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s" s="3">
         <v>14</v>
@@ -3068,7 +3062,7 @@
         <v>14</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>2</v>
@@ -3076,7 +3070,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s" s="3">
         <v>17</v>
@@ -3085,13 +3079,13 @@
         <v>14</v>
       </c>
       <c r="D33" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s" s="3">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>2</v>
@@ -3099,10 +3093,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="4">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s" s="3">
         <v>14</v>
@@ -3122,13 +3116,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="6">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s" s="5">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s" s="5">
         <v>60</v>
-      </c>
-      <c r="B38" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s" s="5">
-        <v>62</v>
       </c>
       <c r="D38" t="s" s="5">
         <v>2</v>
@@ -3147,10 +3141,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s" s="13">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s" s="12">
         <v>2</v>
@@ -3166,10 +3160,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s" s="13">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s" s="12">
         <v>2</v>
@@ -3185,13 +3179,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s" s="8">
         <v>2</v>
       </c>
       <c r="C44" t="s" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s" s="8">
         <v>2</v>

--- a/Folha gerada.xlsx
+++ b/Folha gerada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="72">
   <si>
     <t>Colaborador</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Referente ao mês:</t>
   </si>
   <si>
-    <t>setembro/2020</t>
+    <t>fevereiro/2020</t>
   </si>
   <si>
     <t>Dia do mês</t>
@@ -55,16 +55,43 @@
     <t>01</t>
   </si>
   <si>
+    <t>sábado</t>
+  </si>
+  <si>
+    <t>08:00 às 12:00</t>
+  </si>
+  <si>
+    <t>13:30 às 18:00</t>
+  </si>
+  <si>
+    <t>18:030 às 21:30</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>domingo</t>
+  </si>
+  <si>
+    <t>folga</t>
+  </si>
+  <si>
+    <t>---------------------</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>segunda</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
     <t>terça</t>
   </si>
   <si>
-    <t>folga</t>
-  </si>
-  <si>
-    <t>---------------------</t>
-  </si>
-  <si>
-    <t>02</t>
+    <t>05</t>
   </si>
   <si>
     <t>quarta</t>
@@ -73,7 +100,7 @@
     <t>08:00 às 13:00</t>
   </si>
   <si>
-    <t>03</t>
+    <t>06</t>
   </si>
   <si>
     <t>quinta</t>
@@ -85,39 +112,12 @@
     <t>18:00 às 21:30</t>
   </si>
   <si>
-    <t>04</t>
+    <t>07</t>
   </si>
   <si>
     <t>sexta</t>
   </si>
   <si>
-    <t>08:00 às 12:00</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>sábado</t>
-  </si>
-  <si>
-    <t>13:30 às 18:00</t>
-  </si>
-  <si>
-    <t>18:030 às 21:30</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>domingo</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>segunda</t>
-  </si>
-  <si>
     <t>08</t>
   </si>
   <si>
@@ -184,12 +184,6 @@
     <t>29</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>Faltas:</t>
   </si>
   <si>
@@ -214,28 +208,28 @@
     <t>CARLA</t>
   </si>
   <si>
+    <t>c08:00 às 12:00</t>
+  </si>
+  <si>
+    <t>13:30 às 18:30</t>
+  </si>
+  <si>
+    <t>cfolga</t>
+  </si>
+  <si>
     <t>c08:00 às 13:00</t>
   </si>
   <si>
-    <t>cfolga</t>
-  </si>
-  <si>
-    <t>c08:00 às 12:00</t>
-  </si>
-  <si>
-    <t>13:30 às 18:30</t>
-  </si>
-  <si>
     <t>MILENA</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>08:30 às 12:00</t>
+  </si>
+  <si>
     <t>18:00 às 21:00</t>
-  </si>
-  <si>
-    <t>08:30 às 12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -601,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -676,13 +670,13 @@
         <v>14</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>2</v>
@@ -690,22 +684,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>2</v>
@@ -713,22 +707,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>2</v>
@@ -742,16 +736,16 @@
         <v>24</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>2</v>
@@ -759,19 +753,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="C8" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="C8" t="s" s="3">
-        <v>25</v>
-      </c>
       <c r="D8" t="s" s="3">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>2</v>
@@ -782,22 +776,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="E9" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="F9" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>2</v>
@@ -814,13 +808,13 @@
         <v>14</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>2</v>
@@ -837,13 +831,13 @@
         <v>14</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>2</v>
@@ -854,19 +848,19 @@
         <v>35</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>2</v>
@@ -877,19 +871,19 @@
         <v>36</v>
       </c>
       <c r="B13" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="C13" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>2</v>
@@ -903,16 +897,16 @@
         <v>24</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>2</v>
@@ -923,16 +917,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="C15" t="s" s="3">
-        <v>25</v>
-      </c>
       <c r="D15" t="s" s="3">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>2</v>
@@ -946,19 +940,19 @@
         <v>39</v>
       </c>
       <c r="B16" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="F16" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>2</v>
@@ -975,13 +969,13 @@
         <v>14</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>2</v>
@@ -998,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="D18" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>2</v>
@@ -1015,19 +1009,19 @@
         <v>42</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>2</v>
@@ -1038,19 +1032,19 @@
         <v>43</v>
       </c>
       <c r="B20" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="C20" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>2</v>
@@ -1064,16 +1058,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>2</v>
@@ -1084,16 +1078,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="C22" t="s" s="3">
-        <v>25</v>
-      </c>
       <c r="D22" t="s" s="3">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>2</v>
@@ -1107,19 +1101,19 @@
         <v>46</v>
       </c>
       <c r="B23" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="C23" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="F23" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>2</v>
@@ -1136,13 +1130,13 @@
         <v>14</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>2</v>
@@ -1159,13 +1153,13 @@
         <v>14</v>
       </c>
       <c r="D25" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>2</v>
@@ -1176,19 +1170,19 @@
         <v>49</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>2</v>
@@ -1199,19 +1193,19 @@
         <v>50</v>
       </c>
       <c r="B27" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="C27" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>2</v>
@@ -1225,16 +1219,16 @@
         <v>24</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>2</v>
@@ -1245,16 +1239,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="C29" t="s" s="3">
-        <v>25</v>
-      </c>
       <c r="D29" t="s" s="3">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>2</v>
@@ -1268,19 +1262,19 @@
         <v>53</v>
       </c>
       <c r="B30" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="C30" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="F30" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>2</v>
@@ -1297,13 +1291,13 @@
         <v>14</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>2</v>
@@ -1320,121 +1314,46 @@
         <v>14</v>
       </c>
       <c r="D32" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="4">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="B34" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="B38" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="C38" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="D38" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="11">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s" s="13">
-        <v>62</v>
-      </c>
-      <c r="E40" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
     <row r="42">
-      <c r="A42" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s" s="13">
-        <v>62</v>
-      </c>
-      <c r="E42" t="s" s="12">
+      <c r="A42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="11">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s" s="13">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s" s="13">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s" s="13">
         <v>2</v>
       </c>
       <c r="E43" t="s" s="12">
@@ -1442,19 +1361,65 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="9">
-        <v>64</v>
-      </c>
-      <c r="B44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s" s="8">
+      <c r="A44" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="E45" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="9">
         <v>62</v>
       </c>
-      <c r="D44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s" s="10">
+      <c r="B49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="D49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1469,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1493,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s" s="12">
         <v>2</v>
@@ -1541,16 +1506,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>2</v>
@@ -1558,19 +1523,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>2</v>
@@ -1581,22 +1546,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>2</v>
@@ -1610,16 +1575,16 @@
         <v>24</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>2</v>
@@ -1627,19 +1592,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="B8" t="s" s="3">
-        <v>27</v>
-      </c>
       <c r="C8" t="s" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>2</v>
@@ -1650,19 +1615,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="E9" t="s" s="3">
         <v>31</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s" s="3">
-        <v>14</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>2</v>
@@ -1679,16 +1644,16 @@
         <v>33</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>2</v>
@@ -1702,16 +1667,16 @@
         <v>13</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>2</v>
@@ -1722,16 +1687,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>2</v>
@@ -1745,19 +1710,19 @@
         <v>36</v>
       </c>
       <c r="B13" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="C13" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>2</v>
@@ -1771,16 +1736,16 @@
         <v>24</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>2</v>
@@ -1791,16 +1756,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>2</v>
@@ -1814,16 +1779,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s" s="3">
         <v>31</v>
-      </c>
-      <c r="C16" t="s" s="3">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s" s="3">
-        <v>14</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>2</v>
@@ -1840,16 +1805,16 @@
         <v>33</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>2</v>
@@ -1863,16 +1828,16 @@
         <v>13</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>2</v>
@@ -1883,16 +1848,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>2</v>
@@ -1906,19 +1871,19 @@
         <v>43</v>
       </c>
       <c r="B20" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="C20" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>2</v>
@@ -1932,16 +1897,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>2</v>
@@ -1952,16 +1917,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>2</v>
@@ -1975,16 +1940,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s" s="3">
         <v>31</v>
-      </c>
-      <c r="C23" t="s" s="3">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E23" t="s" s="3">
-        <v>14</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>2</v>
@@ -2001,16 +1966,16 @@
         <v>33</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>2</v>
@@ -2024,16 +1989,16 @@
         <v>13</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>2</v>
@@ -2044,16 +2009,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>2</v>
@@ -2067,19 +2032,19 @@
         <v>50</v>
       </c>
       <c r="B27" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="C27" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>2</v>
@@ -2093,16 +2058,16 @@
         <v>24</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>2</v>
@@ -2113,16 +2078,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s" s="3">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>2</v>
@@ -2136,16 +2101,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s" s="3">
         <v>31</v>
-      </c>
-      <c r="C30" t="s" s="3">
-        <v>68</v>
-      </c>
-      <c r="D30" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E30" t="s" s="3">
-        <v>14</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>2</v>
@@ -2162,16 +2127,16 @@
         <v>33</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>2</v>
@@ -2185,124 +2150,49 @@
         <v>13</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="4">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="D33" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="B34" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="D34" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="B38" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="C38" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="D38" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="11">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s" s="13">
-        <v>62</v>
-      </c>
-      <c r="E40" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
     <row r="42">
-      <c r="A42" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s" s="13">
-        <v>62</v>
-      </c>
-      <c r="E42" t="s" s="12">
+      <c r="A42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="11">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s" s="13">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s" s="13">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s" s="13">
         <v>2</v>
       </c>
       <c r="E43" t="s" s="12">
@@ -2310,19 +2200,65 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="9">
-        <v>64</v>
-      </c>
-      <c r="B44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s" s="8">
+      <c r="A44" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="E45" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="9">
         <v>62</v>
       </c>
-      <c r="D44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s" s="10">
+      <c r="B49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="D49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2337,7 +2273,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2361,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s" s="12">
         <v>2</v>
@@ -2412,13 +2348,13 @@
         <v>14</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>2</v>
@@ -2426,19 +2362,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>2</v>
@@ -2449,22 +2385,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>2</v>
@@ -2478,16 +2414,16 @@
         <v>24</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s" s="3">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>2</v>
@@ -2495,19 +2431,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="B8" t="s" s="3">
-        <v>27</v>
-      </c>
       <c r="C8" t="s" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>2</v>
@@ -2518,19 +2454,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s" s="3">
-        <v>14</v>
-      </c>
       <c r="E9" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>2</v>
@@ -2547,16 +2483,16 @@
         <v>33</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>2</v>
@@ -2573,13 +2509,13 @@
         <v>14</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>2</v>
@@ -2590,16 +2526,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>2</v>
@@ -2613,19 +2549,19 @@
         <v>36</v>
       </c>
       <c r="B13" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="C13" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>2</v>
@@ -2639,16 +2575,16 @@
         <v>24</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>2</v>
@@ -2659,16 +2595,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>2</v>
@@ -2682,16 +2618,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>2</v>
@@ -2708,16 +2644,16 @@
         <v>33</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>2</v>
@@ -2734,13 +2670,13 @@
         <v>14</v>
       </c>
       <c r="D18" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>2</v>
@@ -2751,16 +2687,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>2</v>
@@ -2774,19 +2710,19 @@
         <v>43</v>
       </c>
       <c r="B20" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="C20" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>2</v>
@@ -2800,16 +2736,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>2</v>
@@ -2820,16 +2756,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>2</v>
@@ -2843,16 +2779,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>2</v>
@@ -2869,16 +2805,16 @@
         <v>33</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>2</v>
@@ -2895,13 +2831,13 @@
         <v>14</v>
       </c>
       <c r="D25" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>2</v>
@@ -2912,16 +2848,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>2</v>
@@ -2935,19 +2871,19 @@
         <v>50</v>
       </c>
       <c r="B27" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="C27" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>2</v>
@@ -2961,16 +2897,16 @@
         <v>24</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>2</v>
@@ -2981,16 +2917,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s" s="3">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>2</v>
@@ -3004,16 +2940,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>2</v>
@@ -3030,16 +2966,16 @@
         <v>33</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>2</v>
@@ -3056,121 +2992,46 @@
         <v>14</v>
       </c>
       <c r="D32" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s" s="3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="4">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E33" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="B34" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="B38" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="C38" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="D38" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="11">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s" s="13">
-        <v>62</v>
-      </c>
-      <c r="E40" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
     <row r="42">
-      <c r="A42" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s" s="13">
-        <v>62</v>
-      </c>
-      <c r="E42" t="s" s="12">
+      <c r="A42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="11">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s" s="13">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s" s="13">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s" s="13">
         <v>2</v>
       </c>
       <c r="E43" t="s" s="12">
@@ -3178,19 +3039,65 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="9">
-        <v>64</v>
-      </c>
-      <c r="B44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s" s="8">
+      <c r="A44" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="E45" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="9">
         <v>62</v>
       </c>
-      <c r="D44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s" s="10">
+      <c r="B49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="D49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s" s="10">
         <v>2</v>
       </c>
     </row>

--- a/Folha gerada.xlsx
+++ b/Folha gerada.xlsx
@@ -8,18 +8,17 @@
   <sheets>
     <sheet name="1" r:id="rId3" sheetId="1"/>
     <sheet name="2" r:id="rId4" sheetId="2"/>
-    <sheet name="3" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="72">
   <si>
     <t>Colaborador</t>
   </si>
   <si>
-    <t>FELYPE AURÉLIO GANZERT</t>
+    <t>BRUNO</t>
   </si>
   <si>
     <t/>
@@ -28,7 +27,7 @@
     <t>Referente ao mês:</t>
   </si>
   <si>
-    <t>fevereiro/2020</t>
+    <t>setembro/2020</t>
   </si>
   <si>
     <t>Dia do mês</t>
@@ -55,178 +54,178 @@
     <t>01</t>
   </si>
   <si>
+    <t>terça</t>
+  </si>
+  <si>
+    <t>folga</t>
+  </si>
+  <si>
+    <t>---------------------</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>quarta</t>
+  </si>
+  <si>
+    <t>feriado</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>quinta</t>
+  </si>
+  <si>
+    <t>cfolga</t>
+  </si>
+  <si>
+    <t>13:30 às 17:30</t>
+  </si>
+  <si>
+    <t>18:00 às 21:30</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>sexta</t>
+  </si>
+  <si>
+    <t>c08:00 às 12:00</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
     <t>sábado</t>
   </si>
   <si>
+    <t>13:30 às 18:00</t>
+  </si>
+  <si>
+    <t>18:030 às 21:30</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>domingo</t>
+  </si>
+  <si>
+    <t>13:30 às 18:30</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>segunda</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>c08:00 às 13:00</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Faltas:</t>
+  </si>
+  <si>
+    <t>_____________</t>
+  </si>
+  <si>
+    <t>Observações:</t>
+  </si>
+  <si>
+    <t>Assinatura do colaborador</t>
+  </si>
+  <si>
+    <t>________________________________________</t>
+  </si>
+  <si>
+    <t>Assinatura secretária</t>
+  </si>
+  <si>
+    <t>Assinatura direção</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>08:30 às 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>08:00 às 12:00</t>
-  </si>
-  <si>
-    <t>13:30 às 18:00</t>
-  </si>
-  <si>
-    <t>18:030 às 21:30</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>domingo</t>
-  </si>
-  <si>
-    <t>folga</t>
-  </si>
-  <si>
-    <t>---------------------</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>segunda</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>terça</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>quarta</t>
-  </si>
-  <si>
-    <t>08:00 às 13:00</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>quinta</t>
-  </si>
-  <si>
-    <t>13:30 às 17:30</t>
-  </si>
-  <si>
-    <t>18:00 às 21:30</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>sexta</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Faltas:</t>
-  </si>
-  <si>
-    <t>_____________</t>
-  </si>
-  <si>
-    <t>Observações:</t>
-  </si>
-  <si>
-    <t>Assinatura do colaborador</t>
-  </si>
-  <si>
-    <t>________________________________________</t>
-  </si>
-  <si>
-    <t>Assinatura secretária</t>
-  </si>
-  <si>
-    <t>Assinatura direção</t>
-  </si>
-  <si>
-    <t>CARLA</t>
-  </si>
-  <si>
-    <t>c08:00 às 12:00</t>
-  </si>
-  <si>
-    <t>13:30 às 18:30</t>
-  </si>
-  <si>
-    <t>cfolga</t>
-  </si>
-  <si>
-    <t>c08:00 às 13:00</t>
-  </si>
-  <si>
-    <t>MILENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>08:30 às 12:00</t>
   </si>
   <si>
     <t>18:00 às 21:00</t>
@@ -670,13 +669,13 @@
         <v>14</v>
       </c>
       <c r="D4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>2</v>
@@ -684,22 +683,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="C5" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="C5" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="D5" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>2</v>
@@ -707,22 +706,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="D6" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="C6" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="E6" t="s" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>2</v>
@@ -730,22 +729,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="B7" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="F7" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>2</v>
@@ -753,19 +752,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="3">
-        <v>27</v>
-      </c>
       <c r="D8" t="s" s="3">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>2</v>
@@ -776,19 +775,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>2</v>
@@ -799,22 +798,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>2</v>
@@ -822,7 +821,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="3">
         <v>13</v>
@@ -831,13 +830,13 @@
         <v>14</v>
       </c>
       <c r="D11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E11" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>2</v>
@@ -845,22 +844,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>2</v>
@@ -868,22 +867,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="C13" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="E13" t="s" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>2</v>
@@ -891,22 +890,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>2</v>
@@ -914,19 +913,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="C15" t="s" s="3">
-        <v>27</v>
-      </c>
       <c r="D15" t="s" s="3">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>2</v>
@@ -937,19 +936,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>2</v>
@@ -960,22 +959,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>2</v>
@@ -983,7 +982,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s" s="3">
         <v>13</v>
@@ -992,13 +991,13 @@
         <v>14</v>
       </c>
       <c r="D18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E18" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>2</v>
@@ -1006,22 +1005,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>2</v>
@@ -1029,22 +1028,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="C20" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="E20" t="s" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>2</v>
@@ -1052,22 +1051,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>2</v>
@@ -1075,19 +1074,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="C22" t="s" s="3">
-        <v>27</v>
-      </c>
       <c r="D22" t="s" s="3">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>2</v>
@@ -1098,19 +1097,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>2</v>
@@ -1121,22 +1120,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>2</v>
@@ -1144,7 +1143,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s" s="3">
         <v>13</v>
@@ -1153,13 +1152,13 @@
         <v>14</v>
       </c>
       <c r="D25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E25" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>2</v>
@@ -1167,22 +1166,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>2</v>
@@ -1190,22 +1189,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="C27" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="E27" t="s" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>2</v>
@@ -1213,22 +1212,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="4">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>2</v>
@@ -1236,19 +1235,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="C29" t="s" s="3">
-        <v>27</v>
-      </c>
       <c r="D29" t="s" s="3">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>2</v>
@@ -1259,19 +1258,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>2</v>
@@ -1282,22 +1281,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>2</v>
@@ -1305,7 +1304,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s" s="3">
         <v>13</v>
@@ -1314,15 +1313,38 @@
         <v>14</v>
       </c>
       <c r="D32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="E32" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>2</v>
-      </c>
       <c r="G32" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1345,13 +1367,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="11">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s" s="13">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s" s="13">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s" s="13">
         <v>2</v>
@@ -1370,10 +1392,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="11">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s" s="13">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s" s="12">
         <v>2</v>
@@ -1389,10 +1411,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="11">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s" s="13">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E47" t="s" s="12">
         <v>2</v>
@@ -1408,13 +1430,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s" s="8">
         <v>2</v>
       </c>
       <c r="C49" t="s" s="8">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s" s="8">
         <v>2</v>
@@ -1458,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s" s="12">
         <v>2</v>
@@ -1506,16 +1528,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>2</v>
@@ -1523,22 +1545,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="C5" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="C5" t="s" s="3">
-        <v>64</v>
-      </c>
       <c r="D5" t="s" s="3">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>2</v>
@@ -1546,22 +1568,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="C6" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="E6" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>2</v>
@@ -1569,22 +1591,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>2</v>
@@ -1592,19 +1614,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s" s="3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>2</v>
@@ -1615,19 +1637,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>2</v>
@@ -1638,22 +1660,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>2</v>
@@ -1661,22 +1683,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E11" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>2</v>
@@ -1684,19 +1706,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>2</v>
@@ -1707,22 +1729,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="C13" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="E13" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>2</v>
@@ -1730,22 +1752,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>2</v>
@@ -1753,19 +1775,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>2</v>
@@ -1776,19 +1798,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>2</v>
@@ -1799,22 +1821,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>2</v>
@@ -1822,22 +1844,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E18" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>2</v>
@@ -1845,19 +1867,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s" s="3">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s" s="3">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>2</v>
@@ -1868,22 +1890,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="C20" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="E20" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>2</v>
@@ -1891,22 +1913,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>2</v>
@@ -1914,19 +1936,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>2</v>
@@ -1937,19 +1959,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>2</v>
@@ -1960,22 +1982,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>2</v>
@@ -1983,22 +2005,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="E25" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>2</v>
@@ -2006,19 +2028,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>2</v>
@@ -2029,22 +2051,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="C27" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="E27" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>2</v>
@@ -2052,22 +2074,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="4">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>2</v>
@@ -2075,19 +2097,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>2</v>
@@ -2098,19 +2120,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>2</v>
@@ -2121,22 +2143,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>2</v>
@@ -2144,24 +2166,47 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s" s="3">
         <v>13</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="E32" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>2</v>
-      </c>
       <c r="G32" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2184,13 +2229,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="11">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s" s="13">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s" s="13">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s" s="13">
         <v>2</v>
@@ -2209,10 +2254,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="11">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s" s="13">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s" s="12">
         <v>2</v>
@@ -2228,10 +2273,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="11">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s" s="13">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E47" t="s" s="12">
         <v>2</v>
@@ -2247,852 +2292,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s" s="8">
         <v>2</v>
       </c>
       <c r="C49" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="D49" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s" s="10">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <pageMargins bottom="0.390551" footer="0.0" header="0.0" left="0.511811" right="0.511811" top="0.787402"/>
-  <pageSetup orientation="landscape" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" style="1" width="17.5703125" customWidth="true"/>
-    <col min="2" max="2" style="1" width="16.42578125" customWidth="true"/>
-    <col min="3" max="3" style="1" width="18.42578125" customWidth="true"/>
-    <col min="4" max="4" style="1" width="18.42578125" customWidth="true"/>
-    <col min="5" max="5" style="1" width="18.42578125" customWidth="true"/>
-    <col min="6" max="6" style="1" width="18.42578125" customWidth="true"/>
-    <col min="7" max="7" style="1" width="30.42578125" customWidth="true"/>
-    <col min="8" max="8" style="1" width="8.0" customWidth="false"/>
-    <col min="9" max="9" style="1" width="8.0" customWidth="false"/>
-    <col min="10" max="10" style="1" width="8.0" customWidth="false"/>
-    <col min="11" max="11" style="1" width="8.0" customWidth="false"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E11" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="D17" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="4">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="D24" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E24" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="4">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="D26" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="4">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="4">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="4">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E29" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="4">
-        <v>53</v>
-      </c>
-      <c r="B30" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="D30" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E30" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="4">
-        <v>54</v>
-      </c>
-      <c r="B31" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="D31" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E31" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="4">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E32" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="11">
-        <v>56</v>
-      </c>
-      <c r="B43" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="C43" t="s" s="13">
-        <v>58</v>
-      </c>
-      <c r="D43" t="s" s="13">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="C45" t="s" s="13">
-        <v>60</v>
-      </c>
-      <c r="E45" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="11">
-        <v>61</v>
-      </c>
-      <c r="C47" t="s" s="13">
-        <v>60</v>
-      </c>
-      <c r="E47" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="9">
-        <v>62</v>
-      </c>
-      <c r="B49" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s" s="8">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s" s="8">
         <v>2</v>
